--- a/testFile/stu-list.xlsx
+++ b/testFile/stu-list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\程嘉朗\IdeaProjects\CS309-OOAD-ProjectHelper\testFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/271cdb3d13ab853e/Code/Java/CS309/CS309-OOAD-ProjectHelper/testFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9EFDF5-63CD-4378-9710-CE1B713B8B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1477" yWindow="3697" windowWidth="17281" windowHeight="9983" xr2:uid="{BE03BAC4-B7F5-47B7-8F7A-5578431B0CF8}"/>
+    <workbookView xWindow="4125" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{BE03BAC4-B7F5-47B7-8F7A-5578431B0CF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,15 +475,15 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.06640625" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>12110030</v>
       </c>
@@ -517,7 +517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>12110031</v>
       </c>
@@ -534,7 +534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>12110032</v>
       </c>
@@ -551,7 +551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>12110033</v>
       </c>
@@ -568,7 +568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>12110034</v>
       </c>
@@ -585,7 +585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>12110035</v>
       </c>
@@ -602,7 +602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>12110036</v>
       </c>
@@ -619,7 +619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>12110037</v>
       </c>
@@ -636,7 +636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>12110038</v>
       </c>
@@ -653,7 +653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>12110039</v>
       </c>
